--- a/data/0120-b.xlsx
+++ b/data/0120-b.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="25360" windowHeight="14520"/>
+    <workbookView minimized="1" xWindow="3960" yWindow="2700" windowWidth="25360" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$G$701</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -648,7 +648,7 @@
   <dimension ref="A1:J701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D200" sqref="D200"/>
     </sheetView>
   </sheetViews>
@@ -1789,7 +1789,7 @@
         <v>0.81609351199362767</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>35</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>1.096082501953473</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>5.0558295386742436E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>2.1832648233187841</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>35</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>1.8121706210663631</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>4.1747676771092213</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>4.0990974065561714</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>2.9864186742112215</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>35</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>3.8817164088816565</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>35</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>5516036</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>35</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>10.614133778036493</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>35</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>1.943270870777734E-4</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>35</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>2.9720605416898391</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>35</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>35</v>
       </c>
@@ -16810,7 +16810,6 @@
   <autoFilter ref="A1:G701">
     <filterColumn colId="0">
       <filters>
-        <filter val="2017-01-18"/>
         <filter val="2017-01-19"/>
       </filters>
     </filterColumn>
